--- a/run_1/RandomForestClassifier/RFC_GLM/Tables/RFC_GLM_accuracy_scores_per_fold.xlsx
+++ b/run_1/RandomForestClassifier/RFC_GLM/Tables/RFC_GLM_accuracy_scores_per_fold.xlsx
@@ -450,7 +450,7 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.1159420289855072</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1739130434782609</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
